--- a/middle-data/topic_influencer/Topic_Influencer.xlsx
+++ b/middle-data/topic_influencer/Topic_Influencer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wky/Desktop/projects/family-violence/middle-data/topic_influencer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD89214-7792-494B-BB72-69C6139B99AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F2EFB3-F18E-CF4C-8C23-6F85000EDAAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="36560" windowHeight="19700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="2" r:id="rId1"/>
@@ -814,8 +814,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.18210852485371271"/>
           <c:y val="0.33330479765610693"/>
-          <c:w val="0.7119286584786122"/>
-          <c:h val="0.63422736220472442"/>
+          <c:w val="0.67595517222923984"/>
+          <c:h val="0.62389143217562926"/>
         </c:manualLayout>
       </c:layout>
       <c:bubbleChart>
@@ -1688,9 +1688,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1851,10 +1851,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22052784428291139"/>
-          <c:y val="0.33475828602819996"/>
-          <c:w val="0.51983206133261883"/>
-          <c:h val="0.63422736220472442"/>
+          <c:x val="0.22930940300958538"/>
+          <c:y val="0.33475823714490982"/>
+          <c:w val="0.57142371885182852"/>
+          <c:h val="0.66524176285509018"/>
         </c:manualLayout>
       </c:layout>
       <c:bubbleChart>
@@ -2511,9 +2511,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2674,10 +2674,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23269867684065265"/>
-          <c:y val="0.33475828602819996"/>
-          <c:w val="0.67566228995860045"/>
-          <c:h val="0.63422736220472442"/>
+          <c:x val="0.25331723354168362"/>
+          <c:y val="0.33475827392479574"/>
+          <c:w val="0.69930814357205251"/>
+          <c:h val="0.6007390295359113"/>
         </c:manualLayout>
       </c:layout>
       <c:bubbleChart>
@@ -3467,11 +3467,11 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3632,10 +3632,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23527599642828151"/>
+          <c:x val="0.25460589333549799"/>
           <c:y val="0.33475828602819996"/>
-          <c:w val="0.52617775387612631"/>
-          <c:h val="0.63422736220472442"/>
+          <c:w val="0.58159012501014695"/>
+          <c:h val="0.60632042529356711"/>
         </c:manualLayout>
       </c:layout>
       <c:bubbleChart>
@@ -4254,11 +4254,11 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4419,10 +4419,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22883269745920939"/>
-          <c:y val="0.33475828602819996"/>
-          <c:w val="0.7542705373812808"/>
-          <c:h val="0.63422736220472442"/>
+          <c:x val="0.22060305615091186"/>
+          <c:y val="0.29646552092523265"/>
+          <c:w val="0.6448110865786072"/>
+          <c:h val="0.61399785811188345"/>
         </c:manualLayout>
       </c:layout>
       <c:bubbleChart>
@@ -4445,6 +4445,16 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-3C0F-3E46-8795-069E9009A287}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>'2018'!$A$2:$A$90</c:f>
@@ -5302,11 +5312,11 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -5361,12 +5371,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5551,13 +5556,10 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -8275,10 +8277,10 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>232834</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8353,12 +8355,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.01831</cdr:x>
-      <cdr:y>0.07304</cdr:y>
+      <cdr:x>0.03178</cdr:x>
+      <cdr:y>0.03776</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.93793</cdr:x>
-      <cdr:y>0.93662</cdr:y>
+      <cdr:x>0.96814</cdr:x>
+      <cdr:y>0.95784</cdr:y>
     </cdr:to>
     <cdr:grpSp>
       <cdr:nvGrpSpPr>
@@ -8373,10 +8375,10 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="180449" y="638228"/>
-          <a:ext cx="9063059" cy="7545583"/>
-          <a:chOff x="234104" y="444899"/>
-          <a:chExt cx="4153562" cy="5259881"/>
+          <a:off x="407003" y="373742"/>
+          <a:ext cx="11993735" cy="9107715"/>
+          <a:chOff x="368624" y="229995"/>
+          <a:chExt cx="3964092" cy="5604058"/>
         </a:xfrm>
       </cdr:grpSpPr>
       <cdr:sp macro="" textlink="">
@@ -8392,8 +8394,8 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="234104" y="2264754"/>
-            <a:ext cx="1450200" cy="3440026"/>
+            <a:off x="368624" y="2033747"/>
+            <a:ext cx="1450200" cy="3800306"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
             <a:avLst/>
@@ -8404,187 +8406,451 @@
           <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>ABC</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>News</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Sky</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>News</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>The</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Age</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Sydney</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Morning</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Herald</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>White</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Ribbon</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Scott</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Morrison</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Dan</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Andrews</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Malcolm</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Turnbull</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Dr</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Julia</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Baird</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Lyle</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Shelton</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </cdr:txBody>
       </cdr:sp>
@@ -8601,8 +8867,8 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="1433493" y="444899"/>
-            <a:ext cx="2954173" cy="1561308"/>
+            <a:off x="1359295" y="229995"/>
+            <a:ext cx="2973421" cy="1567533"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
             <a:avLst/>
@@ -8610,199 +8876,439 @@
         </cdr:spPr>
         <cdr:txBody>
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" vertOverflow="clip" vert="vert270" wrap="square" rtlCol="0">
-            <a:spAutoFit/>
+            <a:noAutofit/>
           </a:bodyPr>
           <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Gun</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Violence</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Prevalence</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Mens</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Actions</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Context</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Causes</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Prevention</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Strategy</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Government</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Inaction</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Abuse</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Experiences</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Advocacy</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Campaigning</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Politics</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Governance</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </cdr:txBody>
       </cdr:sp>
@@ -8857,10 +9363,10 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.03189</cdr:x>
-      <cdr:y>0.06578</cdr:y>
+      <cdr:y>0.06793</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.94621</cdr:x>
+      <cdr:x>0.94321</cdr:x>
       <cdr:y>0.93662</cdr:y>
     </cdr:to>
     <cdr:grpSp>
@@ -8876,10 +9382,10 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="368958" y="574759"/>
-          <a:ext cx="10578408" cy="7609052"/>
-          <a:chOff x="234104" y="400635"/>
-          <a:chExt cx="4129608" cy="5304145"/>
+          <a:off x="427818" y="667773"/>
+          <a:ext cx="12225818" cy="8539015"/>
+          <a:chOff x="234104" y="413751"/>
+          <a:chExt cx="4116080" cy="5291029"/>
         </a:xfrm>
       </cdr:grpSpPr>
       <cdr:sp macro="" textlink="">
@@ -8907,195 +9413,425 @@
           <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>ABC</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>News</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>White</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Ribbon</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>ABC</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Q</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>A</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>The</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Today</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Show</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>The</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Age</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Phil</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Rothfield</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Tony</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Abbott</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Charlie</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Pickering</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Dan</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Andrews</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Rosie</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Batty</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </cdr:txBody>
       </cdr:sp>
@@ -9112,8 +9848,8 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="1126535" y="400635"/>
-            <a:ext cx="3237177" cy="1561308"/>
+            <a:off x="1105156" y="413751"/>
+            <a:ext cx="3245028" cy="1561308"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
             <a:avLst/>
@@ -9126,206 +9862,461 @@
           <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Action</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Needed</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Legal</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Action</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Men's</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Action</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Advocacy</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Campaigning</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Government</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Action</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Violence</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Justified</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Services</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Abuse</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Experiences</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Social</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Causes</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Culture</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>of</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Violence</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </cdr:txBody>
       </cdr:sp>
@@ -9423,10 +10414,10 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.03189</cdr:x>
-      <cdr:y>0.07014</cdr:y>
+      <cdr:y>0.03023</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.69626</cdr:x>
+      <cdr:x>0.7562</cdr:x>
       <cdr:y>0.93662</cdr:y>
     </cdr:to>
     <cdr:grpSp>
@@ -9442,10 +10433,10 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="368958" y="612855"/>
-          <a:ext cx="7686561" cy="7570956"/>
-          <a:chOff x="234104" y="427194"/>
-          <a:chExt cx="3000673" cy="5277586"/>
+          <a:off x="368958" y="275168"/>
+          <a:ext cx="8380041" cy="8249635"/>
+          <a:chOff x="234104" y="184125"/>
+          <a:chExt cx="3271393" cy="5520655"/>
         </a:xfrm>
       </cdr:grpSpPr>
       <cdr:sp macro="" textlink="">
@@ -9473,187 +10464,407 @@
           <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>ABC</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>News</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>The</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Age</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Change.org</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Sydney</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Morning</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Herald</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>ABC</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Q</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>A</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Rosie</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Batty</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Malcolm</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Turnbull</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Tony</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Abbott</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Annastacia</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Palaszczuk</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>John</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Caldwell</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </cdr:txBody>
       </cdr:sp>
@@ -9670,8 +10881,8 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="1305017" y="427194"/>
-            <a:ext cx="1929760" cy="1561308"/>
+            <a:off x="1354595" y="184125"/>
+            <a:ext cx="2150902" cy="1832707"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
             <a:avLst/>
@@ -9684,138 +10895,308 @@
           <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Culture</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Attitudes</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Government</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Action</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Services</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Neede</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Men's</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Action</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Advocacy</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Campaigning</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Policing</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Prevalence</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </cdr:txBody>
       </cdr:sp>
@@ -9834,8 +11215,8 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>296334</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -9913,10 +11294,10 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.01831</cdr:x>
-      <cdr:y>0.06723</cdr:y>
+      <cdr:y>0.07421</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.86298</cdr:x>
+      <cdr:x>0.95531</cdr:x>
       <cdr:y>0.93662</cdr:y>
     </cdr:to>
     <cdr:grpSp>
@@ -9932,10 +11313,10 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="180449" y="587429"/>
-          <a:ext cx="8324391" cy="7596382"/>
-          <a:chOff x="234104" y="409488"/>
-          <a:chExt cx="3815031" cy="5295292"/>
+          <a:off x="196339" y="675405"/>
+          <a:ext cx="10047513" cy="7849397"/>
+          <a:chOff x="234104" y="451982"/>
+          <a:chExt cx="4232061" cy="5252798"/>
         </a:xfrm>
       </cdr:grpSpPr>
       <cdr:sp macro="" textlink="">
@@ -9963,171 +11344,371 @@
           <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>ABC</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>News</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Sydney</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Morning</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Herald</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>The</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Age</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>The</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Conversation</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Change.org</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Rosie</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Batty</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Dan</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Andrews</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Malcolm</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Turnbull</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Michaelia</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Cash</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Fiona</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Richardson</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </cdr:txBody>
       </cdr:sp>
@@ -10144,8 +11725,8 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="1439313" y="409488"/>
-            <a:ext cx="2609822" cy="1561308"/>
+            <a:off x="1555720" y="451982"/>
+            <a:ext cx="2910445" cy="1561308"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
             <a:avLst/>
@@ -10158,166 +11739,371 @@
           <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Violence</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Reporting</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Male</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Perpetrators</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Government</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Inaction</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Community</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Support</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Law</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Reform</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Successful</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Programmes</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Social</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Determinants</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Victims'</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Experiences</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </cdr:txBody>
       </cdr:sp>
@@ -10415,10 +12201,10 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.01831</cdr:x>
-      <cdr:y>0.06723</cdr:y>
+      <cdr:y>0.06956</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.7105</cdr:x>
+      <cdr:x>0.78253</cdr:x>
       <cdr:y>0.93662</cdr:y>
     </cdr:to>
     <cdr:grpSp>
@@ -10434,10 +12220,10 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="180449" y="587429"/>
-          <a:ext cx="6821671" cy="7596382"/>
-          <a:chOff x="234104" y="409488"/>
-          <a:chExt cx="3126346" cy="5295292"/>
+          <a:off x="180449" y="633071"/>
+          <a:ext cx="7531563" cy="7891731"/>
+          <a:chOff x="234104" y="423652"/>
+          <a:chExt cx="3451687" cy="5281128"/>
         </a:xfrm>
       </cdr:grpSpPr>
       <cdr:sp macro="" textlink="">
@@ -10465,187 +12251,407 @@
           <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>ABC</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>News</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Sydney</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Morning</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Herald</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Daily</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Life</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Change.org</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Dougy's</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Daily</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Digest</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Dr</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Julia</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Baird</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Malcolm</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Turnbull</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Pauline</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Hanson</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Dan</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Andrews</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Rosie</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Batty</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </cdr:txBody>
       </cdr:sp>
@@ -10662,8 +12668,8 @@
         </cdr:nvSpPr>
         <cdr:spPr>
           <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:off x="1439313" y="409488"/>
-            <a:ext cx="1921137" cy="1561308"/>
+            <a:off x="1546020" y="423652"/>
+            <a:ext cx="2139771" cy="1561308"/>
           </a:xfrm>
           <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
             <a:avLst/>
@@ -10676,150 +12682,335 @@
           <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Social</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Context</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Male</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Perpetrators</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Survival</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Inspiration</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Prevalence</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Risk</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Programmes</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Services</a:t>
             </a:r>
           </a:p>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
-          </a:p>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Men</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>as</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+              </a:rPr>
               <a:t>Victims</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </cdr:txBody>
       </cdr:sp>
@@ -10838,10 +13029,10 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>290286</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11240,7 +13431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E14B6AC-6B83-584B-A26B-AAEAD93BC0AD}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection sqref="A1:E89"/>
     </sheetView>
   </sheetViews>
@@ -12777,7 +14968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436F8977-FB2B-3D4C-B5AC-2CD63EE88BAA}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -13907,7 +16098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A106DE16-07F0-4647-A9E5-352C0FFFC639}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -15292,7 +17483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312D1535-83F3-4947-86C3-48C565F4AF13}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -16354,7 +18545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7B4140-FABA-B149-880E-6CA4C7D694CF}">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
